--- a/2024/shuffle-architecute/Teste10/content/results/metrics_7_5.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_7_5.xlsx
@@ -488,75 +488,75 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_24</t>
+          <t>model_7_5_21</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9663402352762803</v>
+        <v>0.957320284132221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7415476218836987</v>
+        <v>0.7450814544286847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9260144865057465</v>
+        <v>0.9852533254420188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9712650567984356</v>
+        <v>0.2069967676728824</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9609659553403914</v>
+        <v>0.7290799465401956</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1412628293037415</v>
+        <v>0.1791176199913025</v>
       </c>
       <c r="H2" t="n">
-        <v>1.728272199630737</v>
+        <v>1.704641461372375</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05190722644329071</v>
+        <v>0.02694635465741158</v>
       </c>
       <c r="J2" t="n">
-        <v>0.066484235227108</v>
+        <v>0.7115776538848877</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05919571965932846</v>
+        <v>0.3692620098590851</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_23</t>
+          <t>model_7_5_20</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9658331035722109</v>
+        <v>0.9571173371520518</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7411344985652277</v>
+        <v>0.7450805811800079</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9282307389142034</v>
+        <v>0.9850816474937361</v>
       </c>
       <c r="E3" t="n">
-        <v>0.971548528849169</v>
+        <v>0.2100419179733196</v>
       </c>
       <c r="F3" t="n">
-        <v>0.961694808363954</v>
+        <v>0.729967082349923</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1433911472558975</v>
+        <v>0.1799693703651428</v>
       </c>
       <c r="H3" t="n">
-        <v>1.731034755706787</v>
+        <v>1.704647302627563</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05035233497619629</v>
+        <v>0.02726005762815475</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06582836806774139</v>
+        <v>0.7088451981544495</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05809039995074272</v>
+        <v>0.3680528700351715</v>
       </c>
     </row>
     <row r="4">
@@ -566,182 +566,182 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9653097860618891</v>
+        <v>0.9575164912115141</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7407107949270213</v>
+        <v>0.7450796575160064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9303085041703276</v>
+        <v>0.9854177526111628</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9718268781905065</v>
+        <v>0.2039415788670655</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9623877262197548</v>
+        <v>0.7281845925158312</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1455873996019363</v>
+        <v>0.1782941818237305</v>
       </c>
       <c r="H4" t="n">
-        <v>1.73386812210083</v>
+        <v>1.70465350151062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04889459908008575</v>
+        <v>0.02664589881896973</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0651843473315239</v>
+        <v>0.7143191695213318</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05703957751393318</v>
+        <v>0.3704824149608612</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_21</t>
+          <t>model_7_5_19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9647699346942941</v>
+        <v>0.9569075878188582</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7402763066517239</v>
+        <v>0.7450768963564305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9322419992270297</v>
+        <v>0.9849026871663987</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9720998523085939</v>
+        <v>0.2130774698351969</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9630432660161019</v>
+        <v>0.7308463788306818</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1478530466556549</v>
+        <v>0.180849626660347</v>
       </c>
       <c r="H5" t="n">
-        <v>1.736773490905762</v>
+        <v>1.7046719789505</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04753808677196503</v>
+        <v>0.02758706919848919</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06455276161432266</v>
+        <v>0.7061213254928589</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05604544281959534</v>
+        <v>0.3668543994426727</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_20</t>
+          <t>model_7_5_23</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9642130213632671</v>
+        <v>0.9577060868421213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7398307438268196</v>
+        <v>0.7450752306783446</v>
       </c>
       <c r="D6" t="n">
-        <v>0.934025334841015</v>
+        <v>0.985575053298419</v>
       </c>
       <c r="E6" t="n">
-        <v>0.972367242577667</v>
+        <v>0.2008774890870824</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9636597738111473</v>
+        <v>0.7272812449092256</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1501902937889099</v>
+        <v>0.1774984896183014</v>
       </c>
       <c r="H6" t="n">
-        <v>1.739753007888794</v>
+        <v>1.704683065414429</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0462869256734848</v>
+        <v>0.02635846473276615</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06393410265445709</v>
+        <v>0.717068612575531</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05511049926280975</v>
+        <v>0.3717136383056641</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_19</t>
+          <t>model_7_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9636386818117371</v>
+        <v>0.9566907523310292</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7393739621301446</v>
+        <v>0.7450703866470254</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9356537431345414</v>
+        <v>0.9847161785365189</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9726287317407918</v>
+        <v>0.2161004548832677</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9642359481728575</v>
+        <v>0.7317165447732538</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1526006758213043</v>
+        <v>0.1817596405744553</v>
       </c>
       <c r="H7" t="n">
-        <v>1.742807626724243</v>
+        <v>1.704715490341187</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0451444573700428</v>
+        <v>0.02792787179350853</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06332908570766449</v>
+        <v>0.7034087777137756</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05423672124743462</v>
+        <v>0.365668386220932</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_5_18</t>
+          <t>model_7_5_24</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.963046501757578</v>
+        <v>0.9578892957325924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7389056999290383</v>
+        <v>0.7450682195339482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9371207683739333</v>
+        <v>0.9857252893657197</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9728841915370688</v>
+        <v>0.1978047598820806</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9647701213656681</v>
+        <v>0.7263705973476362</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1550859212875366</v>
+        <v>0.17672960460186</v>
       </c>
       <c r="H8" t="n">
-        <v>1.745938777923584</v>
+        <v>1.704730033874512</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04411520808935165</v>
+        <v>0.0260839406400919</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06273803859949112</v>
+        <v>0.7198258638381958</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05342664197087288</v>
+        <v>0.3729548752307892</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9624359487939965</v>
+        <v>0.9564667735072324</v>
       </c>
       <c r="C9" t="n">
-        <v>0.738425714373411</v>
+        <v>0.7450609464398568</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9384201051595177</v>
+        <v>0.9845222774375542</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9731331106764136</v>
+        <v>0.2191124714734338</v>
       </c>
       <c r="F9" t="n">
-        <v>0.965260615226846</v>
+        <v>0.7325780654434019</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1576482802629471</v>
+        <v>0.1826996356248856</v>
       </c>
       <c r="H9" t="n">
-        <v>1.749148368835449</v>
+        <v>1.704778671264648</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04320361465215683</v>
+        <v>0.02828218601644039</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06216210499405861</v>
+        <v>0.7007060050964355</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05268280208110809</v>
+        <v>0.364494115114212</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9618066507545361</v>
+        <v>0.9562354484907988</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7379337843229863</v>
+        <v>0.7450484366283354</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9395460062854242</v>
+        <v>0.9843206216172401</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9733754774265921</v>
+        <v>0.2221122118599576</v>
       </c>
       <c r="F10" t="n">
-        <v>0.965705875839979</v>
+        <v>0.7334302077537294</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1602893322706223</v>
+        <v>0.1836704611778259</v>
       </c>
       <c r="H10" t="n">
-        <v>1.752438068389893</v>
+        <v>1.704862236976624</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04241369664669037</v>
+        <v>0.0286506675183773</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06160134077072144</v>
+        <v>0.6980142593383789</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05200755596160889</v>
+        <v>0.3633326590061188</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9611580778650706</v>
+        <v>0.9559966588120833</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7374296182385032</v>
+        <v>0.7450328345645174</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9404915975385567</v>
+        <v>0.9841112003086701</v>
       </c>
       <c r="E11" t="n">
-        <v>0.973610919387041</v>
+        <v>0.2250992774917565</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9661042371964842</v>
+        <v>0.7342731957814572</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1630112528800964</v>
+        <v>0.1846726089715958</v>
       </c>
       <c r="H11" t="n">
-        <v>1.755809307098389</v>
+        <v>1.70496654510498</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04175028204917908</v>
+        <v>0.02903333865106106</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06105659529566765</v>
+        <v>0.6953339576721191</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05140343680977821</v>
+        <v>0.362183690071106</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9604897323261014</v>
+        <v>0.95575023642063</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7369130231332124</v>
+        <v>0.7450140530563716</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9412502932608202</v>
+        <v>0.9838939217701519</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9738391482755535</v>
+        <v>0.2280734524869948</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9664538228636383</v>
+        <v>0.7351065910663555</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1658161282539368</v>
+        <v>0.1857067942619324</v>
       </c>
       <c r="H12" t="n">
-        <v>1.759263753890991</v>
+        <v>1.705092191696167</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04121799394488335</v>
+        <v>0.02943036705255508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06052854284644127</v>
+        <v>0.6926651000976562</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0508732832968235</v>
+        <v>0.361047774553299</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9598011372796198</v>
+        <v>0.9554959870874127</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7363836957306196</v>
+        <v>0.7449919748024216</v>
       </c>
       <c r="D13" t="n">
-        <v>0.941815197336151</v>
+        <v>0.9836685726385425</v>
       </c>
       <c r="E13" t="n">
-        <v>0.974059943500182</v>
+        <v>0.231034089200164</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9667528708089755</v>
+        <v>0.7359300708381489</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1687060296535492</v>
+        <v>0.1867738366127014</v>
       </c>
       <c r="H13" t="n">
-        <v>1.762803435325623</v>
+        <v>1.70524001121521</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04082166403532028</v>
+        <v>0.02984214574098587</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06001768633723259</v>
+        <v>0.6900085210800171</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05041977390646935</v>
+        <v>0.3599253594875336</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9590918147150358</v>
+        <v>0.9552338166824579</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7358414016268802</v>
+        <v>0.7449665169895632</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9421785821653871</v>
+        <v>0.9834351963000167</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9742729769185475</v>
+        <v>0.2339806354719524</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9669995516388122</v>
+        <v>0.7367436752402696</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1716828942298889</v>
+        <v>0.1878740936517715</v>
       </c>
       <c r="H14" t="n">
-        <v>1.766429662704468</v>
+        <v>1.705410122871399</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04056671634316444</v>
+        <v>0.03026858903467655</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0595247894525528</v>
+        <v>0.6873645186424255</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0500456765294075</v>
+        <v>0.3588164150714874</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9583611965581339</v>
+        <v>0.954963534254449</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7352858559743232</v>
+        <v>0.7449375660148655</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9423337756400847</v>
+        <v>0.9831936070413584</v>
       </c>
       <c r="E15" t="n">
-        <v>0.974477986975729</v>
+        <v>0.2369130954539338</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9671918070985845</v>
+        <v>0.7375470630108401</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1747491508722305</v>
+        <v>0.1890083849430084</v>
       </c>
       <c r="H15" t="n">
-        <v>1.770144701004028</v>
+        <v>1.70560359954834</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0404578372836113</v>
+        <v>0.03071004338562489</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05905045941472054</v>
+        <v>0.6847331523895264</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04975412040948868</v>
+        <v>0.3577214181423187</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9576087766517482</v>
+        <v>0.9546849558121131</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7347168085480409</v>
+        <v>0.7449050591160654</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9422729306073854</v>
+        <v>0.9829436977031741</v>
       </c>
       <c r="E16" t="n">
-        <v>0.974674668733049</v>
+        <v>0.2398311079591902</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9673277703380347</v>
+        <v>0.7383399240204955</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1779069006443024</v>
+        <v>0.1901775598526001</v>
       </c>
       <c r="H16" t="n">
-        <v>1.773949861526489</v>
+        <v>1.70582103729248</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04050052165985107</v>
+        <v>0.03116669692099094</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05859539657831192</v>
+        <v>0.6821147799491882</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04954792931675911</v>
+        <v>0.3566407561302185</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9568339950333392</v>
+        <v>0.9543979268861267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7341339394474139</v>
+        <v>0.7448688896632509</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9419883269350474</v>
+        <v>0.9826853611897807</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9748627451675003</v>
+        <v>0.2427338177635244</v>
       </c>
       <c r="F17" t="n">
-        <v>0.967405382703781</v>
+        <v>0.7391222958930272</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1811584830284119</v>
+        <v>0.1913821399211884</v>
       </c>
       <c r="H17" t="n">
-        <v>1.777847528457642</v>
+        <v>1.706062912940979</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04070019721984863</v>
+        <v>0.03163874894380569</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05816023796796799</v>
+        <v>0.6795101165771484</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04943022876977921</v>
+        <v>0.355574369430542</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.956036277412051</v>
+        <v>0.9541023356552639</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7335370244985155</v>
+        <v>0.7448289687941947</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9414713006720569</v>
+        <v>0.9824183481421626</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9750419050942074</v>
+        <v>0.2456225616736912</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9674224381217983</v>
+        <v>0.7398942165511664</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1845063418149948</v>
+        <v>0.1926226615905762</v>
       </c>
       <c r="H18" t="n">
-        <v>1.78183913230896</v>
+        <v>1.706329941749573</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04106293246150017</v>
+        <v>0.03212666139006615</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05774571374058723</v>
+        <v>0.6769179701805115</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04940436035394669</v>
+        <v>0.3545222878456116</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9552150545440983</v>
+        <v>0.9537979810829431</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7329257130901679</v>
+        <v>0.7447851473370712</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9407136962713608</v>
+        <v>0.9821427658471318</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9752117879051063</v>
+        <v>0.2484957579400834</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9673768528857177</v>
+        <v>0.7406552395914084</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1879528015851974</v>
+        <v>0.1938999891281128</v>
       </c>
       <c r="H19" t="n">
-        <v>1.785927057266235</v>
+        <v>1.706622958183289</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04159446060657501</v>
+        <v>0.03263022378087044</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05735265836119652</v>
+        <v>0.6743398308753967</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04947349056601524</v>
+        <v>0.3534849882125854</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.954369745139133</v>
+        <v>0.9534846464895781</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7322997322063385</v>
+        <v>0.7447373716271302</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9397075293909894</v>
+        <v>0.9818582966490799</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9753721672653418</v>
+        <v>0.2513532612576189</v>
       </c>
       <c r="F20" t="n">
-        <v>0.967266393972791</v>
+        <v>0.7414051436269969</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1915004104375839</v>
+        <v>0.1952149569988251</v>
       </c>
       <c r="H20" t="n">
-        <v>1.790112972259521</v>
+        <v>1.706942319869995</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04230037331581116</v>
+        <v>0.03315003216266632</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05698158591985703</v>
+        <v>0.6717756986618042</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04964100569486618</v>
+        <v>0.3524628877639771</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9534997372706721</v>
+        <v>0.9531622713035846</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7316587826199703</v>
+        <v>0.7446855034606357</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9384431386121097</v>
+        <v>0.9815648596369315</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9755227572853713</v>
+        <v>0.2541973093245607</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9670888058630186</v>
+        <v>0.7421445910245591</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1951516568660736</v>
+        <v>0.1965679377317429</v>
       </c>
       <c r="H21" t="n">
-        <v>1.79439902305603</v>
+        <v>1.707289338111877</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0431874506175518</v>
+        <v>0.03368622437119484</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05663316324353218</v>
+        <v>0.6692236661911011</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04991031810641289</v>
+        <v>0.3514550030231476</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.952604431941698</v>
+        <v>0.9528305646948955</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7310025231497099</v>
+        <v>0.7446294513931717</v>
       </c>
       <c r="D22" t="n">
-        <v>0.93691168817453</v>
+        <v>0.9812622792272816</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9756631869040849</v>
+        <v>0.2570252783462853</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9668416788679323</v>
+        <v>0.7428726089037508</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1989090740680695</v>
+        <v>0.1979600191116333</v>
       </c>
       <c r="H22" t="n">
-        <v>1.798787355422974</v>
+        <v>1.707664132118225</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04426189512014389</v>
+        <v>0.03423912450671196</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05630825459957123</v>
+        <v>0.6666861176490784</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05028509348630905</v>
+        <v>0.3504627346992493</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9516831556681257</v>
+        <v>0.9524894674622426</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7303306836508059</v>
+        <v>0.744569077996974</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9351033281365231</v>
+        <v>0.9809504558421689</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9757931431999365</v>
+        <v>0.2598382477319732</v>
       </c>
       <c r="F23" t="n">
-        <v>0.966522538901</v>
+        <v>0.7435896175321401</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2027754634618759</v>
+        <v>0.1993915438652039</v>
       </c>
       <c r="H23" t="n">
-        <v>1.803279995918274</v>
+        <v>1.708067774772644</v>
       </c>
       <c r="I23" t="n">
-        <v>0.04553061723709106</v>
+        <v>0.03480891138315201</v>
       </c>
       <c r="J23" t="n">
-        <v>0.05600757151842117</v>
+        <v>0.6641619801521301</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05076907575130463</v>
+        <v>0.349485456943512</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9507353367545136</v>
+        <v>0.9521386754990191</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7296429024231019</v>
+        <v>0.7445042987193125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9330087541004745</v>
+        <v>0.980629025318044</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9759123509848622</v>
+        <v>0.2626360929344111</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9661289651848055</v>
+        <v>0.7442951178713502</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2067532390356064</v>
+        <v>0.2008637189865112</v>
       </c>
       <c r="H24" t="n">
-        <v>1.807879209518433</v>
+        <v>1.708500981330872</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04700014367699623</v>
+        <v>0.03539625927805901</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05573175847530365</v>
+        <v>0.6616513729095459</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0513659380376339</v>
+        <v>0.3485238552093506</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9497602017226832</v>
+        <v>0.9517781153843322</v>
       </c>
       <c r="C25" t="n">
-        <v>0.728938863893544</v>
+        <v>0.7444349706968068</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9306178456678641</v>
+        <v>0.9802981335815354</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9760204625221323</v>
+        <v>0.2654198393923208</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9656584144558302</v>
+        <v>0.7449897124999183</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2108456790447235</v>
+        <v>0.2023769021034241</v>
       </c>
       <c r="H25" t="n">
-        <v>1.812587022781372</v>
+        <v>1.708964347839355</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04867757111787796</v>
+        <v>0.03600088879466057</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05548162013292313</v>
+        <v>0.6591534614562988</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05207953229546547</v>
+        <v>0.3475771248340607</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9487571465189761</v>
+        <v>0.951407612989246</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7282182364115318</v>
+        <v>0.7443610191809745</v>
       </c>
       <c r="D26" t="n">
-        <v>0.927920485581205</v>
+        <v>0.9799573626982689</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9761171628178307</v>
+        <v>0.2681900724776041</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9651082068432872</v>
+        <v>0.7456731262004537</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2150552719831467</v>
+        <v>0.2039318531751633</v>
       </c>
       <c r="H26" t="n">
-        <v>1.817405939102173</v>
+        <v>1.709458947181702</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05057000368833542</v>
+        <v>0.03662357479333878</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0552578866481781</v>
+        <v>0.6566677093505859</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05291393399238586</v>
+        <v>0.3466456532478333</v>
       </c>
     </row>
   </sheetData>
